--- a/Моечная машина Adelio latuada/ТО Моечная машина Adelio latuada на 2022 год.xlsx
+++ b/Моечная машина Adelio latuada/ТО Моечная машина Adelio latuada на 2022 год.xlsx
@@ -5,14 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Механики" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ТО для операторов" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ТО для механиков инв. №55550264" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="ТО для операторов инв. №5555018" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="ТО для механиков инв. №5555018" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -646,9 +646,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3155040</xdr:colOff>
+      <xdr:colOff>3154680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5076360</xdr:rowOff>
+      <xdr:rowOff>5076000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,7 +662,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9462960" y="2454840"/>
-          <a:ext cx="2345760" cy="5076360"/>
+          <a:ext cx="2345400" cy="5076000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,9 +683,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5091480</xdr:colOff>
+      <xdr:colOff>5091120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2336400</xdr:rowOff>
+      <xdr:rowOff>2336040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,7 +699,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668800" y="9946800"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,9 +720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5091480</xdr:colOff>
+      <xdr:colOff>5091120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2348280</xdr:rowOff>
+      <xdr:rowOff>2347920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,7 +736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668800" y="12390840"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,9 +757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5065200</xdr:colOff>
+      <xdr:colOff>5064840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2342520</xdr:rowOff>
+      <xdr:rowOff>2342160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -773,7 +773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8667720" y="17204400"/>
-          <a:ext cx="5051160" cy="2338200"/>
+          <a:ext cx="5050800" cy="2337840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,9 +794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5090400</xdr:colOff>
+      <xdr:colOff>5090040</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2352960</xdr:rowOff>
+      <xdr:rowOff>2352600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,7 +810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8667720" y="14817240"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,9 +831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076360</xdr:colOff>
+      <xdr:colOff>5076000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2345760</xdr:rowOff>
+      <xdr:rowOff>2345400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,7 +847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8653680" y="14810040"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,9 +868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3451680</xdr:colOff>
+      <xdr:colOff>3451320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>5097240</xdr:rowOff>
+      <xdr:rowOff>5096880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,7 +884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9759600" y="27230040"/>
-          <a:ext cx="2345760" cy="5076360"/>
+          <a:ext cx="2345400" cy="5076000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,9 +905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3561120</xdr:colOff>
+      <xdr:colOff>3560760</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>5097600</xdr:rowOff>
+      <xdr:rowOff>5097240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,7 +921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9869040" y="22091760"/>
-          <a:ext cx="2345760" cy="5076360"/>
+          <a:ext cx="2345400" cy="5076000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,9 +942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5090760</xdr:colOff>
+      <xdr:colOff>5090400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2340000</xdr:rowOff>
+      <xdr:rowOff>2339640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -958,7 +958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668080" y="19629720"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5105520</xdr:colOff>
+      <xdr:colOff>5105160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2367720</xdr:rowOff>
+      <xdr:rowOff>2367360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,7 +995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8682840" y="7556400"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,9 +1021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3746520</xdr:colOff>
+      <xdr:colOff>3746160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5126400</xdr:rowOff>
+      <xdr:rowOff>5126040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1037,7 +1037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9282240" y="4542840"/>
-          <a:ext cx="2345760" cy="5076360"/>
+          <a:ext cx="2345400" cy="5076000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,9 +1058,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3602520</xdr:colOff>
+      <xdr:colOff>3602160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1074,7 +1074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9137880" y="9725760"/>
-          <a:ext cx="2346120" cy="5076720"/>
+          <a:ext cx="2345760" cy="5076360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,9 +1095,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5107320</xdr:colOff>
+      <xdr:colOff>5106960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2412720</xdr:rowOff>
+      <xdr:rowOff>2412360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,7 +1111,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7912080" y="14847480"/>
-          <a:ext cx="5076720" cy="2346120"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,9 +1132,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>13320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2348640</xdr:rowOff>
+      <xdr:rowOff>2348280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,7 +1148,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7927200" y="17205480"/>
-          <a:ext cx="5076720" cy="2346120"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4866480</xdr:colOff>
+      <xdr:colOff>4866120</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3398400</xdr:rowOff>
+      <xdr:rowOff>3398040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,7 +1185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8051760" y="19580040"/>
-          <a:ext cx="4696200" cy="3400560"/>
+          <a:ext cx="4695840" cy="3400200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1206,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4889880</xdr:colOff>
+      <xdr:colOff>4889520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7018920</xdr:rowOff>
+      <xdr:rowOff>7018560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1222,7 +1222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8097120" y="23037480"/>
-          <a:ext cx="4674240" cy="3563640"/>
+          <a:ext cx="4673880" cy="3563280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,9 +1243,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5077080</xdr:colOff>
+      <xdr:colOff>5076720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,7 +1259,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7881480" y="26665560"/>
-          <a:ext cx="5077080" cy="3769200"/>
+          <a:ext cx="5076720" cy="3768840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5107680</xdr:colOff>
+      <xdr:colOff>5107320</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>3760560</xdr:rowOff>
+      <xdr:rowOff>3760200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,7 +1296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7912080" y="30440880"/>
-          <a:ext cx="5077080" cy="3743640"/>
+          <a:ext cx="5076720" cy="3743280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2377800</xdr:rowOff>
+      <xdr:rowOff>2377440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1333,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7957080" y="34236720"/>
-          <a:ext cx="5077080" cy="2346480"/>
+          <a:ext cx="5076720" cy="2346120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5106240</xdr:colOff>
+      <xdr:colOff>5105880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2360160</xdr:rowOff>
+      <xdr:rowOff>2359800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1370,7 +1370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7911720" y="2127600"/>
-          <a:ext cx="5076000" cy="2345760"/>
+          <a:ext cx="5075640" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,7 +1810,7 @@
   </sheetPr>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA16" activeCellId="0" sqref="AA16"/>
     </sheetView>
   </sheetViews>
@@ -3296,7 +3296,7 @@
   </sheetPr>
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
     </sheetView>
   </sheetViews>

--- a/Моечная машина Adelio latuada/ТО Моечная машина Adelio latuada на 2022 год.xlsx
+++ b/Моечная машина Adelio latuada/ТО Моечная машина Adelio latuada на 2022 год.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Операторы" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t xml:space="preserve">ТО вертикальной моечной машины ADELIO LATTUADA инв.№55550183 и инв.№55550264 для операторов</t>
   </si>
@@ -462,7 +462,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -559,10 +559,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,9 +642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3154680</xdr:colOff>
+      <xdr:colOff>3154320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5076000</xdr:rowOff>
+      <xdr:rowOff>5075640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -662,7 +658,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9462960" y="2454840"/>
-          <a:ext cx="2345400" cy="5076000"/>
+          <a:ext cx="2345040" cy="5075640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -683,9 +679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5091120</xdr:colOff>
+      <xdr:colOff>5090760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2336040</xdr:rowOff>
+      <xdr:rowOff>2335680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -699,7 +695,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668800" y="9946800"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -720,9 +716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5091120</xdr:colOff>
+      <xdr:colOff>5090760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2347920</xdr:rowOff>
+      <xdr:rowOff>2347560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -736,7 +732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668800" y="12390840"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -757,9 +753,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5064840</xdr:colOff>
+      <xdr:colOff>5064480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2342160</xdr:rowOff>
+      <xdr:rowOff>2341800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -773,7 +769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8667720" y="17204400"/>
-          <a:ext cx="5050800" cy="2337840"/>
+          <a:ext cx="5050440" cy="2337480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,9 +790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5090040</xdr:colOff>
+      <xdr:colOff>5089680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2352600</xdr:rowOff>
+      <xdr:rowOff>2352240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -810,7 +806,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8667720" y="14817240"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -831,9 +827,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076000</xdr:colOff>
+      <xdr:colOff>5075640</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2345400</xdr:rowOff>
+      <xdr:rowOff>2345040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -847,7 +843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8653680" y="14810040"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -868,9 +864,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3451320</xdr:colOff>
+      <xdr:colOff>3450960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>5096880</xdr:rowOff>
+      <xdr:rowOff>5096520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -884,7 +880,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9759600" y="27230040"/>
-          <a:ext cx="2345400" cy="5076000"/>
+          <a:ext cx="2345040" cy="5075640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -905,9 +901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3560760</xdr:colOff>
+      <xdr:colOff>3560400</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>5097240</xdr:rowOff>
+      <xdr:rowOff>5096880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -921,7 +917,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9869040" y="22091760"/>
-          <a:ext cx="2345400" cy="5076000"/>
+          <a:ext cx="2345040" cy="5075640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -942,9 +938,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5090400</xdr:colOff>
+      <xdr:colOff>5090040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2339640</xdr:rowOff>
+      <xdr:rowOff>2339280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -958,7 +954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8668080" y="19629720"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,9 +975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5105160</xdr:colOff>
+      <xdr:colOff>5104800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2367360</xdr:rowOff>
+      <xdr:rowOff>2367000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,7 +991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8682840" y="7556400"/>
-          <a:ext cx="5076000" cy="2345400"/>
+          <a:ext cx="5075640" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1021,9 +1017,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3746160</xdr:colOff>
+      <xdr:colOff>3745800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>5126040</xdr:rowOff>
+      <xdr:rowOff>5125680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1037,7 +1033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9282240" y="4542840"/>
-          <a:ext cx="2345400" cy="5076000"/>
+          <a:ext cx="2345040" cy="5075640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1058,9 +1054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3602160</xdr:colOff>
+      <xdr:colOff>3601800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1074,7 +1070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9137880" y="9725760"/>
-          <a:ext cx="2345760" cy="5076360"/>
+          <a:ext cx="2345400" cy="5076000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,9 +1091,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5106960</xdr:colOff>
+      <xdr:colOff>5106600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2412360</xdr:rowOff>
+      <xdr:rowOff>2412000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,7 +1107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7912080" y="14847480"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,9 +1128,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2348280</xdr:rowOff>
+      <xdr:rowOff>2347920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,7 +1144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7927200" y="17205480"/>
-          <a:ext cx="5076360" cy="2345760"/>
+          <a:ext cx="5076000" cy="2345400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1169,9 +1165,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4866120</xdr:colOff>
+      <xdr:colOff>4865760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>3398040</xdr:rowOff>
+      <xdr:rowOff>3397680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,7 +1181,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8051760" y="19580040"/>
-          <a:ext cx="4695840" cy="3400200"/>
+          <a:ext cx="4695480" cy="3399840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1206,9 +1202,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4889520</xdr:colOff>
+      <xdr:colOff>4889160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>7018560</xdr:rowOff>
+      <xdr:rowOff>7018200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1222,7 +1218,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8097120" y="23037480"/>
-          <a:ext cx="4673880" cy="3563280"/>
+          <a:ext cx="4673520" cy="3562920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1243,9 +1239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5076720</xdr:colOff>
+      <xdr:colOff>5076360</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>10080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1259,7 +1255,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7881480" y="26665560"/>
-          <a:ext cx="5076720" cy="3768840"/>
+          <a:ext cx="5076360" cy="3768480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,9 +1276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5107320</xdr:colOff>
+      <xdr:colOff>5106960</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>3760200</xdr:rowOff>
+      <xdr:rowOff>3759840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,7 +1292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7912080" y="30440880"/>
-          <a:ext cx="5076720" cy="3743280"/>
+          <a:ext cx="5076360" cy="3742920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>43560</xdr:colOff>
+      <xdr:colOff>43200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2377440</xdr:rowOff>
+      <xdr:rowOff>2377080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1333,7 +1329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7957080" y="34236720"/>
-          <a:ext cx="5076720" cy="2346120"/>
+          <a:ext cx="5076360" cy="2345760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5105880</xdr:colOff>
+      <xdr:colOff>5105520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>2359800</xdr:rowOff>
+      <xdr:rowOff>2359440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1370,7 +1366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7911720" y="2127600"/>
-          <a:ext cx="5075640" cy="2345400"/>
+          <a:ext cx="5075280" cy="2345040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,7 +1806,7 @@
   </sheetPr>
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection pane="topLeft" activeCell="AA16" activeCellId="0" sqref="AA16"/>
     </sheetView>
   </sheetViews>
@@ -2694,7 +2690,7 @@
   <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3296,8 +3292,8 @@
   </sheetPr>
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O6" activeCellId="0" sqref="O6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="55" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N13" activeCellId="0" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3832,12 +3828,42 @@
       <c r="AF12" s="7"/>
       <c r="AG12" s="21"/>
     </row>
-    <row r="13" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
+    <row r="13" customFormat="false" ht="170.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="21"/>
     </row>
     <row r="14" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="16"/>
@@ -3850,11 +3876,12 @@
       <c r="C42" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:AG3"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.196527777777778" right="0.196527777777778" top="0.461805555555556" bottom="0.461805555555556" header="0.196527777777778" footer="0.196527777777778"/>
